--- a/Tableaux/API_SMAL/Agroecological_levers.xlsx
+++ b/Tableaux/API_SMAL/Agroecological_levers.xlsx
@@ -21,6 +21,8 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Base de données'!$B$1:$L$45</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Base de données'!$B$1:$L$45</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Base de données'!$B$1:$L$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Base de données'!$B$1:$L$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Base de données'!$B$1:$L$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1536,7 +1538,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, Jonsson et al. (2015), Tschui et al. (2015), </t>
+      <t xml:space="preserve">, Jonsson et al. (2015), Tschumi et al. (2015), </t>
     </r>
     <r>
       <rPr>
@@ -1557,7 +1559,26 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, Balzan et al. (2016), Balzan et al. (2017), Campbell et al. (2017),  Pfister et al. (2017)</t>
+      <t xml:space="preserve">, Balzan et al. (2016), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Tschumi et al. (2016),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Balzan et al. (2017), Campbell et al. (2017),  Pfister et al. (2017)</t>
     </r>
   </si>
   <si>
@@ -2675,7 +2696,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, Pfister et al. (2017)</t>
+      <t xml:space="preserve">, Pfister et al. (2017), </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Muneret et al. (2018)</t>
     </r>
   </si>
   <si>
@@ -2755,7 +2787,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2806,6 +2838,12 @@
       <name val="'Calibri'"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i val="true"/>
@@ -3169,7 +3207,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3266,13 +3304,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.3622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="11" min="7" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="26" min="12" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="11" min="7" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="26" min="12" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,21 +3570,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.719387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.8928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.6122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.3724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.6785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.1275510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.6938775510204"/>
     <col collapsed="false" hidden="true" max="8" min="7" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.8112244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.7295918367347"/>
     <col collapsed="false" hidden="true" max="11" min="10" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="72.6275510204082"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="105.428571428571"/>
-    <col collapsed="false" hidden="false" max="21" min="16" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="26" min="22" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="70.8724489795918"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="103"/>
+    <col collapsed="false" hidden="false" max="21" min="16" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="26" min="22" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7602,30 +7642,30 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="M4" activeCellId="0" sqref="M4"/>
+      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="O10" activeCellId="0" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="46" width="59.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="52.3775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="64.1224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="46" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="46" width="93.6836734693878"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="47" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="47" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="46" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="46" width="84.3673469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="46" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="48" width="95.9795918367347"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="46" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="46" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="46" width="58.4489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="46" width="37.7959183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="46" width="91.5255102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="47" width="44.1428571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="47" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="46" width="33.75"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="46" width="82.4795918367347"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="46" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="48" width="93.8214285714286"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="46" width="61.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="46" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
